--- a/public/uploads/excel/ventas_productos_amigoalpina2019-08-12.xlsx
+++ b/public/uploads/excel/ventas_productos_amigoalpina2019-08-12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t xml:space="preserve">Id_Orden </t>
   </si>
@@ -90,48 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">OBSERVACIONES </t>
-  </si>
-  <si>
-    <t>ARTURO VALENCIA SANCHEZ</t>
-  </si>
-  <si>
-    <t>3206173313</t>
-  </si>
-  <si>
-    <t>7702001058709</t>
-  </si>
-  <si>
-    <t>Promoción 5X6 Leche Deslactosada Bolsa</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>09/08/2019</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>TV 2 # 68-28 apto 505</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
-    <t>7702001121755</t>
-  </si>
-  <si>
-    <t>Queso Mozarella Alpina 15 Tajadas</t>
-  </si>
-  <si>
-    <t>7702001042708</t>
-  </si>
-  <si>
-    <t>Alimento Lácteo Finesse Frutos Rojos</t>
-  </si>
-  <si>
-    <t>19%</t>
   </si>
 </sst>
 </file>
@@ -470,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,210 +511,6 @@
       </c>
       <c r="Y1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
-        <v>1081</v>
-      </c>
-      <c r="C2">
-        <v>10098880</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2">
-        <v>5870</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>17342</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>17342</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2">
-        <v>38226</v>
-      </c>
-      <c r="V2">
-        <v>32122.69</v>
-      </c>
-      <c r="W2">
-        <v>0.19</v>
-      </c>
-      <c r="X2">
-        <v>6103.31</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
-        <v>1081</v>
-      </c>
-      <c r="C3">
-        <v>10098880</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>12175</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>7176</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>7176</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3">
-        <v>38226</v>
-      </c>
-      <c r="V3">
-        <v>32122.69</v>
-      </c>
-      <c r="W3">
-        <v>0.19</v>
-      </c>
-      <c r="X3">
-        <v>6103.31</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
-        <v>1081</v>
-      </c>
-      <c r="C4">
-        <v>10098880</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4">
-        <v>4270</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4">
-        <v>13708</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>11519.327731092</v>
-      </c>
-      <c r="L4">
-        <v>13708</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4">
-        <v>2188.67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4">
-        <v>38226</v>
-      </c>
-      <c r="V4">
-        <v>32122.69</v>
-      </c>
-      <c r="W4">
-        <v>0.19</v>
-      </c>
-      <c r="X4">
-        <v>6103.31</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
